--- a/02-23-2024_Mitaly/feed.xlsx
+++ b/02-23-2024_Mitaly/feed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEBPO\USCS-2851\02-23-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEBPO\USCS-2851\02-23-2024_Mitaly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86222896-2AAC-4C8D-9081-7DC24A180B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7951980D-F86A-4994-82AF-F516942B63BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="181773_Cunard Line 2023" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="646">
   <si>
     <t>{"version": "3.0"}</t>
   </si>
@@ -329,9 +329,6 @@
     <t>18,#000,0,392</t>
   </si>
   <si>
-    <t>Enjoy up to $800&lt;br&gt;Onboard Credit&lt;br&gt;per stateroom*</t>
-  </si>
-  <si>
     <t>15,#000,0,427</t>
   </si>
   <si>
@@ -404,9 +401,6 @@
     <t>https://fm.flashtalking.com/feed/1835/hybrid/trending_europe</t>
   </si>
   <si>
-    <t>Enjoy up to $400&lt;br&gt;Onboard Credit&lt;br&gt;per stateroom*</t>
-  </si>
-  <si>
     <t>Flashtalking-160x600-europe1_feed.jpg</t>
   </si>
   <si>
@@ -773,9 +767,6 @@
     <t>16,#000,9,44</t>
   </si>
   <si>
-    <t>Enjoy up to&lt;br&gt;$800 Onboard Credit&lt;br&gt;per stateroom*</t>
-  </si>
-  <si>
     <t>16,#000,190,21</t>
   </si>
   <si>
@@ -821,9 +812,6 @@
     <t>728x90_failsafe.jpg</t>
   </si>
   <si>
-    <t>Enjoy up to&lt;br&gt;$400 Onboard Credit&lt;br&gt;per stateroom*</t>
-  </si>
-  <si>
     <t>Flashtalking-728x90-europe1_feed.jpg</t>
   </si>
   <si>
@@ -1844,9 +1832,6 @@
     <t>Mediterranean&lt;br&gt;Voyages</t>
   </si>
   <si>
-    <t>Enjoy up to $1200&lt;br&gt;Onboard Credit&lt;br&gt;per stateroom*</t>
-  </si>
-  <si>
     <t>CUN_2024_RTG_Dynamic_160x600.zip</t>
   </si>
   <si>
@@ -1940,15 +1925,6 @@
     <t>15,#000,13,196,text-align:left</t>
   </si>
   <si>
-    <t>Enjoy up to $400 Onboard&lt;br&gt;Credit per stateroom*</t>
-  </si>
-  <si>
-    <t>Enjoy up to $800 Onboard&lt;br&gt;Credit per stateroom*</t>
-  </si>
-  <si>
-    <t>Enjoy up to $1200 Onboard&lt;br&gt;Credit per stateroom*</t>
-  </si>
-  <si>
     <t>17,#000,-43,94</t>
   </si>
   <si>
@@ -1956,16 +1932,56 @@
   </si>
   <si>
     <t>15,#000,13,206,text-align:left</t>
+  </si>
+  <si>
+    <t>Enjoy up to $800&lt;br&gt;Onboard Credit&lt;br&gt;per stateroom</t>
+  </si>
+  <si>
+    <t>Enjoy up to $800 Onboard&lt;br&gt;Credit per stateroom</t>
+  </si>
+  <si>
+    <t>Enjoy up to&lt;br&gt;$800 Onboard Credit&lt;br&gt;per stateroom</t>
+  </si>
+  <si>
+    <t>Enjoy up to $400&lt;br&gt;Onboard Credit&lt;br&gt;per stateroom</t>
+  </si>
+  <si>
+    <t>Enjoy up to $400 Onboard&lt;br&gt;Credit per stateroom</t>
+  </si>
+  <si>
+    <t>Enjoy up to&lt;br&gt;$400 Onboard Credit&lt;br&gt;per stateroom</t>
+  </si>
+  <si>
+    <t>Enjoy up to $1,200&lt;br&gt;Onboard Credit&lt;br&gt;per stateroom</t>
+  </si>
+  <si>
+    <t>Enjoy up to $1,200 Onboard&lt;br&gt;Credit per stateroom</t>
+  </si>
+  <si>
+    <t>Enjoy up to&lt;br&gt;$1,200 Onboard Credit&lt;br&gt;per stateroom</t>
+  </si>
+  <si>
+    <t>14,#000,13,196,text-align:left</t>
+  </si>
+  <si>
+    <t>https://fm.flashtalking.com/feed/1835/hybrid/trending_mediterranean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2031,6 +2047,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2076,41 +2100,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2155,7 +2184,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2199789</xdr:colOff>
+      <xdr:colOff>85239</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
@@ -2492,16 +2521,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="98.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="83.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="70.28515625" style="2" customWidth="1"/>
     <col min="5" max="12" width="24" style="2" customWidth="1"/>
@@ -2515,15 +2544,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2744,10 +2773,10 @@
     </row>
     <row r="12" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>95</v>
@@ -2780,64 +2809,64 @@
         <v>99</v>
       </c>
       <c r="M12" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="N12" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="O12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>99</v>
       </c>
       <c r="S12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="T12" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="U12" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="V12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="W12" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="X12" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Y12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA12" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="Z12" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA12" s="7" t="s">
+      <c r="AB12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC12" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="AD12" s="7" t="s">
         <v>99</v>
       </c>
       <c r="AE12" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG12" s="7" t="s">
         <v>75</v>
@@ -2846,7 +2875,7 @@
         <v>73</v>
       </c>
       <c r="AI12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ12" s="7" t="s">
         <v>69</v>
@@ -2858,16 +2887,16 @@
         <v>75</v>
       </c>
       <c r="AM12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN12" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AN12" s="7" t="s">
+      <c r="AO12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AO12" s="7" t="s">
+      <c r="AP12" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="AP12" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="AQ12" s="7" t="s">
         <v>75</v>
@@ -2903,25 +2932,25 @@
         <v>69</v>
       </c>
       <c r="BB12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BC12" s="7" t="s">
         <v>81</v>
       </c>
       <c r="BD12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE12" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="BF12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG12" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="BH12" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="BE12" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="BF12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG12" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="BH12" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="BI12" s="7" t="s">
         <v>85</v>
@@ -2929,10 +2958,10 @@
     </row>
     <row r="13" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>95</v>
@@ -2956,73 +2985,73 @@
         <v>96</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P13" s="7" t="s">
+      <c r="R13" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="S13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="T13" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="U13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="W13" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="T13" s="7" t="s">
+      <c r="X13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC13" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="U13" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="V13" s="7" t="s">
+      <c r="AD13" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="W13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="AE13" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF13" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AG13" s="7" t="s">
         <v>75</v>
@@ -3031,7 +3060,7 @@
         <v>73</v>
       </c>
       <c r="AI13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ13" s="7" t="s">
         <v>69</v>
@@ -3043,16 +3072,16 @@
         <v>75</v>
       </c>
       <c r="AM13" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN13" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AO13" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AP13" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ13" s="7" t="s">
         <v>75</v>
@@ -3088,36 +3117,36 @@
         <v>69</v>
       </c>
       <c r="BB13" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BC13" s="7" t="s">
         <v>81</v>
       </c>
       <c r="BD13" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="BE13" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="BF13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BG13" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="BH13" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="BG13" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="BH13" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="BI13" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>95</v>
@@ -3141,73 +3170,73 @@
         <v>96</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="R14" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="S14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="T14" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="U14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="W14" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="S14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="T14" s="7" t="s">
+      <c r="X14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC14" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="U14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="V14" s="7" t="s">
+      <c r="AD14" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="W14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="AE14" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF14" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG14" s="7" t="s">
         <v>75</v>
@@ -3216,28 +3245,28 @@
         <v>73</v>
       </c>
       <c r="AI14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AJ14" s="7" t="s">
         <v>69</v>
       </c>
       <c r="AK14" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL14" s="7" t="s">
         <v>75</v>
       </c>
       <c r="AM14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN14" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AO14" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AP14" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ14" s="7" t="s">
         <v>75</v>
@@ -3273,36 +3302,36 @@
         <v>69</v>
       </c>
       <c r="BB14" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BC14" s="7" t="s">
         <v>81</v>
       </c>
       <c r="BD14" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BE14" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="BF14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="BG14" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="BH14" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="BG14" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="BH14" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="BI14" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>95</v>
@@ -3326,73 +3355,73 @@
         <v>96</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="R15" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="S15" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P15" s="7" t="s">
+      <c r="T15" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y15" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="Q15" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="R15" s="7" t="s">
+      <c r="Z15" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC15" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="AD15" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE15" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="T15" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z15" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB15" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC15" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD15" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE15" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="AF15" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG15" s="7" t="s">
         <v>75</v>
@@ -3401,28 +3430,28 @@
         <v>73</v>
       </c>
       <c r="AI15" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AJ15" s="7" t="s">
         <v>69</v>
       </c>
       <c r="AK15" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL15" s="7" t="s">
         <v>75</v>
       </c>
       <c r="AM15" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN15" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AO15" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AP15" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ15" s="7" t="s">
         <v>75</v>
@@ -3458,42 +3487,42 @@
         <v>69</v>
       </c>
       <c r="BB15" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BC15" s="7" t="s">
         <v>81</v>
       </c>
       <c r="BD15" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="BE15" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="BF15" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="BG15" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="BH15" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BI15" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>69</v>
@@ -3514,70 +3543,70 @@
         <v>97</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>99</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>100</v>
+        <v>635</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="Q16" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>99</v>
       </c>
       <c r="S16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="T16" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="T16" s="8" t="s">
+      <c r="U16" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="U16" s="8" t="s">
+      <c r="V16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="W16" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="W16" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="X16" s="8" t="s">
         <v>99</v>
       </c>
       <c r="Y16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="Z16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA16" s="8" t="s">
+      <c r="AB16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC16" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="AB16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC16" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="AD16" s="8" t="s">
         <v>99</v>
       </c>
       <c r="AE16" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF16" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG16" s="8" t="s">
         <v>75</v>
@@ -3586,7 +3615,7 @@
         <v>73</v>
       </c>
       <c r="AI16" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ16" s="8" t="s">
         <v>69</v>
@@ -3598,16 +3627,16 @@
         <v>75</v>
       </c>
       <c r="AM16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN16" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AN16" s="8" t="s">
+      <c r="AO16" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AO16" s="8" t="s">
+      <c r="AP16" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="AP16" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="AQ16" s="8" t="s">
         <v>75</v>
@@ -3643,25 +3672,25 @@
         <v>69</v>
       </c>
       <c r="BB16" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BC16" s="8" t="s">
         <v>81</v>
       </c>
       <c r="BD16" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BE16" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="BF16" s="8" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="BG16" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BH16" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BI16" s="8" t="s">
         <v>85</v>
@@ -3669,16 +3698,16 @@
     </row>
     <row r="17" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>69</v>
@@ -3696,73 +3725,73 @@
         <v>96</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="T17" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="U17" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="W17" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="S17" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="T17" s="8" t="s">
+      <c r="X17" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC17" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="U17" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="X17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y17" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z17" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA17" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB17" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC17" s="8" t="s">
-        <v>163</v>
-      </c>
       <c r="AD17" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF17" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AG17" s="8" t="s">
         <v>75</v>
@@ -3771,7 +3800,7 @@
         <v>73</v>
       </c>
       <c r="AI17" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ17" s="8" t="s">
         <v>69</v>
@@ -3783,16 +3812,16 @@
         <v>75</v>
       </c>
       <c r="AM17" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN17" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AO17" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AP17" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ17" s="8" t="s">
         <v>75</v>
@@ -3828,42 +3857,42 @@
         <v>69</v>
       </c>
       <c r="BB17" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BC17" s="8" t="s">
         <v>81</v>
       </c>
       <c r="BD17" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BE17" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BF17" s="8" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="BG17" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BH17" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="BI17" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>69</v>
@@ -3881,73 +3910,73 @@
         <v>96</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="L18" s="8" t="s">
+      <c r="O18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="8" t="s">
+      <c r="Q18" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="O18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="P18" s="8" t="s">
+      <c r="R18" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="S18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="T18" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="U18" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="W18" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="S18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="T18" s="8" t="s">
+      <c r="X18" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC18" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="U18" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="V18" s="8" t="s">
+      <c r="AD18" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="W18" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="X18" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y18" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z18" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA18" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB18" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC18" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD18" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="AE18" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF18" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG18" s="8" t="s">
         <v>75</v>
@@ -3956,28 +3985,28 @@
         <v>73</v>
       </c>
       <c r="AI18" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AJ18" s="8" t="s">
         <v>69</v>
       </c>
       <c r="AK18" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL18" s="8" t="s">
         <v>75</v>
       </c>
       <c r="AM18" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN18" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AO18" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AP18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ18" s="8" t="s">
         <v>75</v>
@@ -4013,42 +4042,42 @@
         <v>69</v>
       </c>
       <c r="BB18" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BC18" s="8" t="s">
         <v>81</v>
       </c>
       <c r="BD18" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BE18" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="BF18" s="8" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="BG18" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BH18" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BI18" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>69</v>
@@ -4066,73 +4095,73 @@
         <v>96</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="L19" s="8" t="s">
+      <c r="O19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="Q19" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="R19" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="S19" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="O19" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" s="8" t="s">
+      <c r="T19" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y19" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="Q19" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="R19" s="8" t="s">
+      <c r="Z19" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC19" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="S19" s="8" t="s">
+      <c r="AD19" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE19" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="T19" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="U19" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="V19" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="W19" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="X19" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y19" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z19" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA19" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB19" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC19" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD19" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE19" s="8" t="s">
-        <v>255</v>
-      </c>
       <c r="AF19" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG19" s="8" t="s">
         <v>75</v>
@@ -4141,28 +4170,28 @@
         <v>73</v>
       </c>
       <c r="AI19" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AJ19" s="8" t="s">
         <v>69</v>
       </c>
       <c r="AK19" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL19" s="8" t="s">
         <v>75</v>
       </c>
       <c r="AM19" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN19" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AO19" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AP19" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ19" s="8" t="s">
         <v>75</v>
@@ -4198,42 +4227,42 @@
         <v>69</v>
       </c>
       <c r="BB19" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BC19" s="8" t="s">
         <v>81</v>
       </c>
       <c r="BD19" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="BE19" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="BF19" s="8" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="BG19" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="BH19" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BI19" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>69</v>
@@ -4254,70 +4283,70 @@
         <v>97</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="M20" s="10" t="s">
-        <v>125</v>
+      <c r="M20" s="19" t="s">
+        <v>638</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O20" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="Q20" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>99</v>
       </c>
       <c r="S20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="T20" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="T20" s="10" t="s">
+      <c r="U20" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U20" s="10" t="s">
+      <c r="V20" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="W20" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="W20" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="X20" s="10" t="s">
         <v>99</v>
       </c>
       <c r="Y20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="Z20" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA20" s="10" t="s">
+      <c r="AB20" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC20" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="AB20" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC20" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="AD20" s="10" t="s">
         <v>99</v>
       </c>
       <c r="AE20" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG20" s="10" t="s">
         <v>75</v>
@@ -4326,7 +4355,7 @@
         <v>73</v>
       </c>
       <c r="AI20" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ20" s="10" t="s">
         <v>69</v>
@@ -4338,16 +4367,16 @@
         <v>75</v>
       </c>
       <c r="AM20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN20" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AN20" s="10" t="s">
+      <c r="AO20" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AO20" s="10" t="s">
+      <c r="AP20" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="AP20" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="AQ20" s="10" t="s">
         <v>75</v>
@@ -4383,25 +4412,25 @@
         <v>69</v>
       </c>
       <c r="BB20" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BC20" s="10" t="s">
         <v>81</v>
       </c>
       <c r="BD20" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE20" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="BF20" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="BE20" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="BF20" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="BG20" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BH20" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BI20" s="10" t="s">
         <v>85</v>
@@ -4409,16 +4438,16 @@
     </row>
     <row r="21" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>69</v>
@@ -4436,73 +4465,73 @@
         <v>96</v>
       </c>
       <c r="J21" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="K21" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="P21" s="10" t="s">
+      <c r="Q21" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="R21" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="S21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="T21" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="U21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="W21" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="S21" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="T21" s="10" t="s">
+      <c r="X21" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB21" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC21" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="U21" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="V21" s="10" t="s">
+      <c r="AD21" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="W21" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="X21" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y21" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z21" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA21" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB21" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC21" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD21" s="10" t="s">
-        <v>160</v>
-      </c>
       <c r="AE21" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF21" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AG21" s="10" t="s">
         <v>75</v>
@@ -4511,7 +4540,7 @@
         <v>73</v>
       </c>
       <c r="AI21" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ21" s="10" t="s">
         <v>69</v>
@@ -4523,16 +4552,16 @@
         <v>75</v>
       </c>
       <c r="AM21" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN21" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AO21" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AP21" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ21" s="10" t="s">
         <v>75</v>
@@ -4568,42 +4597,42 @@
         <v>69</v>
       </c>
       <c r="BB21" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BC21" s="10" t="s">
         <v>81</v>
       </c>
       <c r="BD21" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE21" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="BF21" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="BE21" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="BF21" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="BG21" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="BH21" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="BI21" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>69</v>
@@ -4621,73 +4650,73 @@
         <v>96</v>
       </c>
       <c r="J22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="N22" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="L22" s="8" t="s">
+      <c r="O22" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="M22" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="N22" s="8" t="s">
+      <c r="Q22" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="O22" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="P22" s="10" t="s">
+      <c r="R22" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="Q22" s="10" t="s">
+      <c r="S22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="T22" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="R22" s="10" t="s">
+      <c r="U22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="S22" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="T22" s="10" t="s">
+      <c r="X22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC22" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="U22" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="V22" s="10" t="s">
+      <c r="AD22" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="W22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="AE22" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF22" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG22" s="10" t="s">
         <v>75</v>
@@ -4696,28 +4725,28 @@
         <v>73</v>
       </c>
       <c r="AI22" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AJ22" s="10" t="s">
         <v>69</v>
       </c>
       <c r="AK22" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL22" s="10" t="s">
         <v>75</v>
       </c>
       <c r="AM22" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN22" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AP22" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ22" s="10" t="s">
         <v>75</v>
@@ -4753,42 +4782,42 @@
         <v>69</v>
       </c>
       <c r="BB22" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BC22" s="10" t="s">
         <v>81</v>
       </c>
       <c r="BD22" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="BE22" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="BF22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="BE22" s="15" t="s">
-        <v>618</v>
-      </c>
-      <c r="BF22" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="BG22" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="BH22" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BI22" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>69</v>
@@ -4806,73 +4835,73 @@
         <v>96</v>
       </c>
       <c r="J23" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="L23" s="8" t="s">
+      <c r="O23" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="M23" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="N23" s="8" t="s">
+      <c r="Q23" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="S23" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="O23" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="P23" s="10" t="s">
+      <c r="T23" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y23" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="Q23" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="R23" s="10" t="s">
+      <c r="Z23" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA23" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB23" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC23" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="AD23" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE23" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="T23" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="V23" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="W23" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="X23" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y23" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z23" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA23" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB23" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC23" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD23" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE23" s="10" t="s">
-        <v>255</v>
-      </c>
       <c r="AF23" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG23" s="10" t="s">
         <v>75</v>
@@ -4881,28 +4910,28 @@
         <v>73</v>
       </c>
       <c r="AI23" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AJ23" s="10" t="s">
         <v>69</v>
       </c>
       <c r="AK23" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL23" s="10" t="s">
         <v>75</v>
       </c>
       <c r="AM23" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN23" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AO23" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AP23" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ23" s="10" t="s">
         <v>75</v>
@@ -4938,42 +4967,42 @@
         <v>69</v>
       </c>
       <c r="BB23" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BC23" s="10" t="s">
         <v>81</v>
       </c>
       <c r="BD23" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="BE23" s="15" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="BF23" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="BG23" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="BH23" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BI23" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>69</v>
@@ -4999,65 +5028,65 @@
       <c r="L24" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="M24" s="12" t="s">
-        <v>125</v>
+      <c r="M24" s="20" t="s">
+        <v>638</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O24" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="Q24" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="R24" s="12" t="s">
         <v>99</v>
       </c>
       <c r="S24" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T24" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="T24" s="12" t="s">
+      <c r="U24" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="U24" s="12" t="s">
+      <c r="V24" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="W24" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="V24" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="X24" s="12" t="s">
         <v>99</v>
       </c>
       <c r="Y24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA24" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="Z24" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA24" s="12" t="s">
+      <c r="AB24" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC24" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="AB24" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC24" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="AD24" s="12" t="s">
         <v>99</v>
       </c>
       <c r="AE24" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF24" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG24" s="12" t="s">
         <v>75</v>
@@ -5066,7 +5095,7 @@
         <v>73</v>
       </c>
       <c r="AI24" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ24" s="12" t="s">
         <v>69</v>
@@ -5078,16 +5107,16 @@
         <v>75</v>
       </c>
       <c r="AM24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN24" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AN24" s="12" t="s">
+      <c r="AO24" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AO24" s="12" t="s">
+      <c r="AP24" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="AP24" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="AQ24" s="12" t="s">
         <v>75</v>
@@ -5123,25 +5152,25 @@
         <v>69</v>
       </c>
       <c r="BB24" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BC24" s="12" t="s">
         <v>81</v>
       </c>
       <c r="BD24" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="BE24" s="16" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="BF24" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="BG24" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BH24" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BI24" s="12" t="s">
         <v>85</v>
@@ -5149,16 +5178,16 @@
     </row>
     <row r="25" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>69</v>
@@ -5176,73 +5205,73 @@
         <v>96</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>92</v>
       </c>
       <c r="L25" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q25" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="M25" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="P25" s="12" t="s">
+      <c r="R25" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="Q25" s="12" t="s">
+      <c r="S25" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T25" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="R25" s="12" t="s">
+      <c r="U25" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="W25" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="S25" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="T25" s="12" t="s">
+      <c r="X25" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y25" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z25" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA25" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC25" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="U25" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="V25" s="12" t="s">
+      <c r="AD25" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="W25" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="X25" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y25" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z25" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA25" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB25" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC25" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD25" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="AE25" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF25" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AG25" s="12" t="s">
         <v>75</v>
@@ -5251,7 +5280,7 @@
         <v>73</v>
       </c>
       <c r="AI25" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ25" s="12" t="s">
         <v>69</v>
@@ -5263,16 +5292,16 @@
         <v>75</v>
       </c>
       <c r="AM25" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN25" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AO25" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AP25" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ25" s="12" t="s">
         <v>75</v>
@@ -5308,42 +5337,42 @@
         <v>69</v>
       </c>
       <c r="BB25" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BC25" s="12" t="s">
         <v>81</v>
       </c>
       <c r="BD25" s="16" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="BE25" s="16" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="BF25" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="BG25" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BH25" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="BI25" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>69</v>
@@ -5361,73 +5390,73 @@
         <v>96</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>92</v>
       </c>
       <c r="L26" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="M26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="N26" s="12" t="s">
+      <c r="Q26" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="O26" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="P26" s="12" t="s">
+      <c r="R26" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="Q26" s="12" t="s">
+      <c r="S26" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T26" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="U26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="W26" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="S26" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="T26" s="12" t="s">
+      <c r="X26" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y26" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z26" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA26" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB26" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC26" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="U26" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="V26" s="12" t="s">
+      <c r="AD26" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="W26" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="X26" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y26" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z26" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA26" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB26" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC26" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD26" s="12" t="s">
-        <v>204</v>
-      </c>
       <c r="AE26" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF26" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG26" s="12" t="s">
         <v>75</v>
@@ -5436,28 +5465,28 @@
         <v>73</v>
       </c>
       <c r="AI26" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AJ26" s="12" t="s">
         <v>69</v>
       </c>
       <c r="AK26" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL26" s="12" t="s">
         <v>75</v>
       </c>
       <c r="AM26" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN26" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AO26" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AP26" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ26" s="12" t="s">
         <v>75</v>
@@ -5493,42 +5522,42 @@
         <v>69</v>
       </c>
       <c r="BB26" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BC26" s="12" t="s">
         <v>81</v>
       </c>
       <c r="BD26" s="16" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="BE26" s="16" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="BF26" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="BG26" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BH26" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BI26" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>69</v>
@@ -5546,73 +5575,73 @@
         <v>96</v>
       </c>
       <c r="J27" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="N27" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="K27" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="L27" s="12" t="s">
+      <c r="O27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="M27" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="N27" s="12" t="s">
+      <c r="Q27" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="S27" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="O27" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="P27" s="12" t="s">
+      <c r="T27" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="U27" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="V27" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y27" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="Q27" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="R27" s="12" t="s">
+      <c r="Z27" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA27" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB27" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC27" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="S27" s="12" t="s">
+      <c r="AD27" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE27" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="T27" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="U27" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="V27" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="W27" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="X27" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y27" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z27" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA27" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB27" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC27" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD27" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE27" s="12" t="s">
-        <v>255</v>
-      </c>
       <c r="AF27" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG27" s="12" t="s">
         <v>75</v>
@@ -5621,28 +5650,28 @@
         <v>73</v>
       </c>
       <c r="AI27" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AJ27" s="12" t="s">
         <v>69</v>
       </c>
       <c r="AK27" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL27" s="12" t="s">
         <v>75</v>
       </c>
       <c r="AM27" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN27" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AO27" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AP27" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ27" s="12" t="s">
         <v>75</v>
@@ -5678,42 +5707,42 @@
         <v>69</v>
       </c>
       <c r="BB27" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BC27" s="12" t="s">
         <v>81</v>
       </c>
       <c r="BD27" s="16" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="BE27" s="16" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="BF27" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="BG27" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="BH27" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BI27" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>124</v>
+        <v>598</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>645</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>124</v>
+        <v>645</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>69</v>
@@ -5734,70 +5763,70 @@
         <v>97</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>99</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>99</v>
       </c>
       <c r="S28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T28" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="V28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W28" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="X28" s="3" t="s">
         <v>99</v>
       </c>
       <c r="Y28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Z28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA28" s="3" t="s">
+      <c r="AB28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC28" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="AB28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC28" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="AD28" s="3" t="s">
         <v>99</v>
       </c>
       <c r="AE28" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG28" s="3" t="s">
         <v>75</v>
@@ -5806,7 +5835,7 @@
         <v>73</v>
       </c>
       <c r="AI28" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ28" s="3" t="s">
         <v>69</v>
@@ -5818,16 +5847,16 @@
         <v>75</v>
       </c>
       <c r="AM28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AN28" s="3" t="s">
+      <c r="AO28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AO28" s="3" t="s">
+      <c r="AP28" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="AP28" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="AQ28" s="3" t="s">
         <v>75</v>
@@ -5863,25 +5892,25 @@
         <v>69</v>
       </c>
       <c r="BB28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BC28" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BD28" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BE28" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BF28" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BG28" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="BH28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BI28" s="3" t="s">
         <v>85</v>
@@ -5889,16 +5918,16 @@
     </row>
     <row r="29" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>124</v>
+        <v>645</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>124</v>
+        <v>645</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>69</v>
@@ -5916,73 +5945,73 @@
         <v>96</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="S29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="U29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="W29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="X29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC29" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="AD29" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD29" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="AE29" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AG29" s="3" t="s">
         <v>75</v>
@@ -5991,7 +6020,7 @@
         <v>73</v>
       </c>
       <c r="AI29" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ29" s="3" t="s">
         <v>69</v>
@@ -6003,16 +6032,16 @@
         <v>75</v>
       </c>
       <c r="AM29" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN29" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AO29" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AP29" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ29" s="3" t="s">
         <v>75</v>
@@ -6048,42 +6077,42 @@
         <v>69</v>
       </c>
       <c r="BB29" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BC29" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BD29" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BE29" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="BF29" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BG29" s="14" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="BH29" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="BI29" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>124</v>
+        <v>645</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>124</v>
+        <v>645</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>69</v>
@@ -6101,73 +6130,73 @@
         <v>96</v>
       </c>
       <c r="J30" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="L30" s="3" t="s">
+      <c r="O30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="N30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="O30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="S30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T30" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="U30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="W30" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="S30" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T30" s="3" t="s">
+      <c r="X30" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC30" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="U30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V30" s="3" t="s">
+      <c r="AD30" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="W30" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z30" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA30" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB30" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC30" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD30" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="AE30" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG30" s="3" t="s">
         <v>75</v>
@@ -6176,28 +6205,28 @@
         <v>73</v>
       </c>
       <c r="AI30" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AJ30" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AK30" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL30" s="3" t="s">
         <v>75</v>
       </c>
       <c r="AM30" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN30" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AO30" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AP30" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ30" s="3" t="s">
         <v>75</v>
@@ -6233,42 +6262,42 @@
         <v>69</v>
       </c>
       <c r="BB30" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BC30" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BD30" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BE30" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="BF30" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BG30" s="14" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="BH30" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BI30" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>124</v>
+        <v>645</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>124</v>
+        <v>645</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>69</v>
@@ -6286,73 +6315,73 @@
         <v>96</v>
       </c>
       <c r="J31" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="L31" s="3" t="s">
+      <c r="O31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="N31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="S31" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P31" s="3" t="s">
+      <c r="T31" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y31" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="Q31" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R31" s="3" t="s">
+      <c r="Z31" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC31" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="AD31" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE31" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="T31" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB31" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC31" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD31" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE31" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="AF31" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG31" s="3" t="s">
         <v>75</v>
@@ -6361,28 +6390,28 @@
         <v>73</v>
       </c>
       <c r="AI31" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AJ31" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AK31" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL31" s="3" t="s">
         <v>75</v>
       </c>
       <c r="AM31" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN31" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AO31" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AP31" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ31" s="3" t="s">
         <v>75</v>
@@ -6418,28 +6447,28 @@
         <v>69</v>
       </c>
       <c r="BB31" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BC31" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BD31" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="BE31" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="BF31" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="BG31" s="14" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="BH31" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BI31" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -6482,10 +6511,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
         <v>85</v>
@@ -6493,77 +6522,77 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6571,50 +6600,50 @@
         <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
@@ -6624,172 +6653,172 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
@@ -6799,12 +6828,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -6814,77 +6843,77 @@
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
@@ -6894,17 +6923,17 @@
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -6914,77 +6943,77 @@
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
@@ -6994,22 +7023,22 @@
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
@@ -7019,47 +7048,47 @@
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
@@ -7069,37 +7098,37 @@
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
@@ -7109,22 +7138,22 @@
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
@@ -7134,17 +7163,17 @@
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
@@ -7154,17 +7183,17 @@
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
@@ -7174,1512 +7203,1512 @@
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
